--- a/webextractor/extrator/static/documents/text.xlsx
+++ b/webextractor/extrator/static/documents/text.xlsx
@@ -476,52 +476,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DescriptionSchneider Electric</t>
+          <t>Schneider Electric</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data science</t>
+          <t>energy sector</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Franchophone Africa &amp; Islands</t>
+          <t>Tunis, Tunis, Tunisia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Schneider Electric Graduate ProgramSchneider</t>
+          <t>Schneider Electric</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>promote a global economy that is both ecologically viable and highly productive</t>
+          <t>Qualifications</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Schneider Electric Graduate ProgramSchneider</t>
+          <t>Data Science Young Graduate</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>assist its customers and business partners in achieving their own sustainability objectives</t>
+          <t>desire to learn, have excellent communication, organization and team working skills</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Start building your career today</t>
+          <t>1 month</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Data science, Data Analyst</t>
+          <t>excellent communication, organization and team working skills</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>engineer (bac +5</t>
         </is>
       </c>
     </row>
